--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,126 +40,144 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crash</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>disgusting</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>affected</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -178,235 +196,268 @@
     <t>oil</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>kind</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>huge</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>easter</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>give</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -764,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -883,13 +934,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -925,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -933,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1084,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.868421052631579</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1083,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8561643835616438</v>
+        <v>0.88</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1201,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1225,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1251,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1275,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8275862068965517</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.9112271540469974</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1351,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.8947368421052632</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>343</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>343</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,13 +1434,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7826086956521739</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1404,16 +1455,16 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.8943661971830986</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1425,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1433,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7666666666666667</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1475,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1483,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7419354838709677</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1501,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1525,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1533,13 +1584,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1551,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1583,13 +1634,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7368421052631579</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1601,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1625,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1633,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7307692307692307</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.8636363636363636</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1675,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1683,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1701,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K20">
         <v>0.8625</v>
@@ -1733,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1751,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1775,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1783,13 +1834,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6956521739130435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1801,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.851063829787234</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1825,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1833,13 +1884,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6949152542372882</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1851,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>0.8448275862068966</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1875,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1883,13 +1934,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6923076923076923</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1901,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1925,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1933,13 +1984,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6862745098039216</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1951,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1975,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1983,13 +2034,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.68</v>
+        <v>0.725</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2001,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>0.8253968253968254</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2025,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2033,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6782945736434108</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C27">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2051,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>0.8235294117647058</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2075,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2083,13 +2134,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.65625</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2101,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2125,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2133,13 +2184,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.65</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2151,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2175,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2183,13 +2234,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6363636363636364</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2201,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K30">
         <v>0.7857142857142857</v>
@@ -2233,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6296296296296297</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C31">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2251,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2275,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2283,13 +2334,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5973154362416108</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C32">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2301,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2325,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2333,13 +2384,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5769230769230769</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2351,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K33">
-        <v>0.7588235294117647</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2375,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2383,13 +2434,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5675675675675675</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2401,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K34">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2425,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2433,13 +2484,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5555555555555556</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2451,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K35">
-        <v>0.74</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2475,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2483,13 +2534,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2501,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K36">
-        <v>0.735593220338983</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L36">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2525,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2533,38 +2584,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5483870967741935</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L37">
         <v>17</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>17</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L37">
-        <v>37</v>
-      </c>
-      <c r="M37">
-        <v>37</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2575,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2583,13 +2634,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5388888888888889</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C38">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2601,19 +2652,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K38">
-        <v>0.725</v>
+        <v>0.7312925170068028</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2622,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2633,13 +2684,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.509090909090909</v>
+        <v>0.575</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2651,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>0.7238493723849372</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L39">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2675,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2683,13 +2734,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.509090909090909</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2701,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2725,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2733,13 +2784,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4821428571428572</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2751,19 +2802,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K41">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2783,13 +2834,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4666666666666667</v>
+        <v>0.53125</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2801,19 +2852,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K42">
-        <v>0.696969696969697</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2825,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2833,13 +2884,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3666666666666666</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2851,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K43">
-        <v>0.6966292134831461</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L43">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M43">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2875,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2883,13 +2934,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3116883116883117</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2901,31 +2952,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K44">
-        <v>0.6818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>15</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2933,13 +2984,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2817460317460317</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2951,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K45">
-        <v>0.6808510638297872</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2975,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2983,13 +3034,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3001,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K46">
-        <v>0.6785714285714286</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3025,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3033,13 +3084,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.160857908847185</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3051,19 +3102,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3075,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3083,13 +3134,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.04333333333333333</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3101,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3125,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3133,37 +3184,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.006117192530585963</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3087</v>
+        <v>55</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="K49">
-        <v>0.6571428571428571</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3175,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3183,37 +3234,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.002526233968130587</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>5133</v>
+        <v>50</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="K50">
-        <v>0.6307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3225,21 +3276,45 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.3373015873015873</v>
+      </c>
+      <c r="C51">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>167</v>
+      </c>
       <c r="J51" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K51">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3251,12 +3326,36 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.225</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>62</v>
+      </c>
       <c r="J52" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K52">
         <v>0.6190476190476191</v>
@@ -3281,17 +3380,41 @@
       </c>
     </row>
     <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.160857908847185</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>313</v>
+      </c>
       <c r="J53" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K53">
-        <v>0.6190476190476191</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3303,21 +3426,45 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>269</v>
+      </c>
       <c r="J54" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K54">
-        <v>0.6071428571428571</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3333,8 +3480,32 @@
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.02121640735502122</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>0.06</v>
+      </c>
+      <c r="F55">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>692</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>0.5833333333333334</v>
@@ -3359,86 +3530,182 @@
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.01546890106348695</v>
+      </c>
+      <c r="C56">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>52</v>
+      </c>
+      <c r="E56">
+        <v>0.08</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>3055</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K56">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.01477272727272727</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>0.13</v>
+      </c>
+      <c r="F57">
+        <v>0.87</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>867</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.01379310344827586</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>0.06</v>
+      </c>
+      <c r="F58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1144</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58">
         <v>0.5769230769230769</v>
       </c>
-      <c r="L56">
+      <c r="L58">
         <v>15</v>
       </c>
-      <c r="M56">
+      <c r="M58">
         <v>15</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L57">
-        <v>15</v>
-      </c>
-      <c r="M57">
-        <v>15</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K58">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L58">
-        <v>13</v>
-      </c>
-      <c r="M58">
-        <v>13</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>10</v>
-      </c>
-    </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.008849557522123894</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0.22</v>
+      </c>
+      <c r="F59">
+        <v>0.78</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2352</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K59">
         <v>0.5652173913043478</v>
@@ -3463,43 +3730,91 @@
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.00823937554206418</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>0.14</v>
+      </c>
+      <c r="F60">
+        <v>0.86</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2287</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K60">
-        <v>0.5483870967741935</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L60">
+        <v>23</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>0.96</v>
+      </c>
+      <c r="O60">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.007947639083683964</v>
+      </c>
+      <c r="C61">
         <v>17</v>
       </c>
-      <c r="M60">
-        <v>17</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61">
+        <v>0.19</v>
+      </c>
+      <c r="F61">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2122</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K61">
-        <v>0.5476190476190477</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3511,15 +3826,39 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.005104408352668214</v>
+      </c>
+      <c r="C62">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>0.45</v>
+      </c>
+      <c r="F62">
+        <v>0.55</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4288</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K62">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
         <v>13</v>
@@ -3537,397 +3876,599 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.005053449951409135</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>46</v>
+      </c>
+      <c r="E63">
+        <v>0.43</v>
+      </c>
+      <c r="F63">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5119</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K63">
-        <v>0.5342465753424658</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L63">
+        <v>38</v>
+      </c>
+      <c r="M63">
+        <v>38</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.004905660377358491</v>
+      </c>
+      <c r="C64">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>0.64</v>
+      </c>
+      <c r="F64">
+        <v>0.36</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2637</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K64">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>28</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.004836759371221282</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <v>0.59</v>
+      </c>
+      <c r="F65">
+        <v>0.41</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>4938</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K65">
+        <v>0.46875</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="J66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <v>13</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="J67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>13</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="J68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K68">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L68">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>13</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="J69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="L69">
+        <v>22</v>
+      </c>
+      <c r="M69">
+        <v>22</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>39</v>
       </c>
-      <c r="M63">
-        <v>39</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K64">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L64">
-        <v>24</v>
-      </c>
-      <c r="M64">
-        <v>24</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K65">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="L65">
+    </row>
+    <row r="70" spans="1:17">
+      <c r="J70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="J71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K71">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="L71">
+        <v>19</v>
+      </c>
+      <c r="M71">
+        <v>19</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="J72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K72">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>14</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="J73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="J74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K74">
+        <v>0.03341687552213868</v>
+      </c>
+      <c r="L74">
+        <v>40</v>
+      </c>
+      <c r="M74">
+        <v>43</v>
+      </c>
+      <c r="N74">
+        <v>0.93</v>
+      </c>
+      <c r="O74">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="J75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75">
+        <v>0.02742230347349177</v>
+      </c>
+      <c r="L75">
         <v>15</v>
       </c>
-      <c r="M65">
+      <c r="M75">
         <v>15</v>
       </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K66">
-        <v>0.421875</v>
-      </c>
-      <c r="L66">
-        <v>27</v>
-      </c>
-      <c r="M66">
-        <v>27</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K67">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L67">
-        <v>30</v>
-      </c>
-      <c r="M67">
-        <v>30</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K68">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="L68">
-        <v>21</v>
-      </c>
-      <c r="M68">
-        <v>21</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K69">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="L69">
-        <v>15</v>
-      </c>
-      <c r="M69">
-        <v>15</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K70">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="L70">
-        <v>19</v>
-      </c>
-      <c r="M70">
-        <v>19</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K71">
-        <v>0.1651376146788991</v>
-      </c>
-      <c r="L71">
-        <v>18</v>
-      </c>
-      <c r="M71">
-        <v>18</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K72">
-        <v>0.1451612903225807</v>
-      </c>
-      <c r="L72">
-        <v>18</v>
-      </c>
-      <c r="M72">
-        <v>18</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K73">
-        <v>0.03125</v>
-      </c>
-      <c r="L73">
-        <v>13</v>
-      </c>
-      <c r="M73">
-        <v>13</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K74">
-        <v>0.02585487906588824</v>
-      </c>
-      <c r="L74">
-        <v>31</v>
-      </c>
-      <c r="M74">
-        <v>32</v>
-      </c>
-      <c r="N74">
-        <v>0.97</v>
-      </c>
-      <c r="O74">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K75">
-        <v>0.006371814092953523</v>
-      </c>
-      <c r="L75">
-        <v>17</v>
-      </c>
-      <c r="M75">
-        <v>22</v>
-      </c>
       <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="J76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76">
+        <v>0.01259445843828715</v>
+      </c>
+      <c r="L76">
+        <v>20</v>
+      </c>
+      <c r="M76">
+        <v>26</v>
+      </c>
+      <c r="N76">
         <v>0.77</v>
       </c>
-      <c r="O75">
+      <c r="O76">
         <v>0.23</v>
       </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76">
-        <v>0.003687888198757764</v>
-      </c>
-      <c r="L76">
-        <v>19</v>
-      </c>
-      <c r="M76">
-        <v>32</v>
-      </c>
-      <c r="N76">
-        <v>0.59</v>
-      </c>
-      <c r="O76">
-        <v>0.41</v>
-      </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>5133</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K77">
-        <v>0.003012048192771084</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="L77">
         <v>13</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N77">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="O77">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>4303</v>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="J78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78">
+        <v>0.008646616541353383</v>
+      </c>
+      <c r="L78">
+        <v>23</v>
+      </c>
+      <c r="M78">
+        <v>36</v>
+      </c>
+      <c r="N78">
+        <v>0.64</v>
+      </c>
+      <c r="O78">
+        <v>0.36</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="J79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K79">
+        <v>0.006838294448913918</v>
+      </c>
+      <c r="L79">
+        <v>34</v>
+      </c>
+      <c r="M79">
+        <v>58</v>
+      </c>
+      <c r="N79">
+        <v>0.59</v>
+      </c>
+      <c r="O79">
+        <v>0.41</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="J80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K80">
+        <v>0.006581009088060169</v>
+      </c>
+      <c r="L80">
+        <v>21</v>
+      </c>
+      <c r="M80">
+        <v>31</v>
+      </c>
+      <c r="N80">
+        <v>0.68</v>
+      </c>
+      <c r="O80">
+        <v>0.32</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81">
+        <v>0.004180213655364608</v>
+      </c>
+      <c r="L81">
+        <v>18</v>
+      </c>
+      <c r="M81">
+        <v>40</v>
+      </c>
+      <c r="N81">
+        <v>0.45</v>
+      </c>
+      <c r="O81">
+        <v>0.55</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82">
+        <v>0.003891807744697412</v>
+      </c>
+      <c r="L82">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>46</v>
+      </c>
+      <c r="N82">
+        <v>0.43</v>
+      </c>
+      <c r="O82">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
